--- a/project-related/shoppingBG/Anne_Shopping資料表_20220803.xlsx
+++ b/project-related/shoppingBG/Anne_Shopping資料表_20220803.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\anne\project-related\shoppingBG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D35B177-27CA-4580-B3A2-0437495625FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199797DF-7DCC-4840-8A11-610A0B593E11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11505" activeTab="5" xr2:uid="{8BC137F4-B0DF-43A4-B783-498922E47A72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{8BC137F4-B0DF-43A4-B783-498922E47A72}"/>
   </bookViews>
   <sheets>
     <sheet name="操作紀錄(要思考)" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="128">
   <si>
     <t>KEY</t>
   </si>
@@ -107,10 +107,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(8)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1247,7 +1243,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -1280,119 +1276,119 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="23" customFormat="1">
       <c r="A4" s="20"/>
       <c r="B4" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1457,7 +1453,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -1490,77 +1486,77 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="8"/>
       <c r="F5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1609,7 +1605,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -1642,133 +1638,133 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8"/>
       <c r="B9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="8"/>
       <c r="F9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8"/>
       <c r="B11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1825,7 +1821,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -1858,119 +1854,119 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1987,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7611E146-7BDF-4965-825E-528B0D35E929}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2003,7 +1999,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -2036,51 +2032,51 @@
         <v>11</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1">
       <c r="A4" s="15"/>
       <c r="B4" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>18</v>
@@ -2088,49 +2084,49 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="16"/>
       <c r="B7" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="16"/>
       <c r="F7" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="16"/>
       <c r="B8" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="16"/>
       <c r="F8" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1">
@@ -2144,7 +2140,7 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1">
@@ -2158,7 +2154,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1">
@@ -2167,12 +2163,12 @@
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1">
@@ -2186,7 +2182,7 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1">
@@ -2195,7 +2191,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -2209,7 +2205,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -2220,47 +2216,47 @@
     <row r="16" spans="1:6" s="10" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="18"/>
       <c r="F16" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8"/>
       <c r="B18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2277,7 +2273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D03B1F-3DED-4989-AE1F-1786E6AC5E25}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2293,7 +2289,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -2326,31 +2322,31 @@
         <v>11</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="28"/>
       <c r="B4" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2364,7 +2360,7 @@
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2378,7 +2374,7 @@
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2387,12 +2383,12 @@
         <v>14</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2401,18 +2397,18 @@
         <v>15</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
       <c r="F8" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="30"/>
       <c r="B9" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>6</v>
@@ -2420,7 +2416,7 @@
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2429,7 +2425,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
@@ -2443,7 +2439,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
@@ -2454,15 +2450,15 @@
     <row r="12" spans="1:6">
       <c r="A12" s="30"/>
       <c r="B12" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>24</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="34"/>
       <c r="F12" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2471,78 +2467,78 @@
         <v>16</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="30">
         <v>0</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="30"/>
       <c r="B14" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="30">
         <v>1</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="31"/>
       <c r="B15" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31">
         <v>0</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="31"/>
       <c r="B16" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="31"/>
       <c r="B17" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2607,7 +2603,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -2640,23 +2636,23 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
@@ -2664,13 +2660,13 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
@@ -2678,13 +2674,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6"/>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -2692,13 +2688,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
@@ -2706,39 +2702,39 @@
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8"/>
       <c r="B9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2811,7 +2807,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -2844,23 +2840,23 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
@@ -2868,124 +2864,124 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6"/>
       <c r="B8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6"/>
       <c r="B9" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="8"/>
       <c r="B12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7">

--- a/project-related/shoppingBG/Anne_Shopping資料表_20220803.xlsx
+++ b/project-related/shoppingBG/Anne_Shopping資料表_20220803.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\anne\project-related\shoppingBG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199797DF-7DCC-4840-8A11-610A0B593E11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48D9247-4474-4E9C-AB91-47A277940897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{8BC137F4-B0DF-43A4-B783-498922E47A72}"/>
+    <workbookView xWindow="5850" yWindow="2340" windowWidth="21600" windowHeight="11505" xr2:uid="{8BC137F4-B0DF-43A4-B783-498922E47A72}"/>
   </bookViews>
   <sheets>
     <sheet name="操作紀錄(要思考)" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="130">
   <si>
     <t>KEY</t>
   </si>
@@ -647,6 +647,14 @@
   </si>
   <si>
     <t>產品圖片路徑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>職:1 人:2 產:3 會:4 訂:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增: 1 刪除:2 修改:3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1225,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E7E4CD-CDFD-40E8-835B-835DD94A76C7}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1241,7 +1249,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="35" t="s">
         <v>103</v>
       </c>
@@ -1251,7 +1259,7 @@
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1289,7 +1297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="23" customFormat="1">
+    <row r="4" spans="1:7" s="23" customFormat="1">
       <c r="A4" s="20"/>
       <c r="B4" s="21" t="s">
         <v>99</v>
@@ -1303,7 +1311,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
         <v>97</v>
@@ -1316,8 +1324,11 @@
       <c r="F5" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
         <v>95</v>
@@ -1330,8 +1341,11 @@
       <c r="F6" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
         <v>90</v>
@@ -1345,7 +1359,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="6"/>
       <c r="B8" s="5" t="s">
         <v>92</v>
@@ -1359,7 +1373,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
         <v>80</v>
@@ -1375,7 +1389,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="8"/>
       <c r="B10" s="5" t="s">
         <v>86</v>
@@ -1391,7 +1405,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="8"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1399,7 +1413,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="8"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1407,7 +1421,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="8"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1415,7 +1429,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="8"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1983,7 +1997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7611E146-7BDF-4965-825E-528B0D35E929}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -2792,7 +2806,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/project-related/shoppingBG/Anne_Shopping資料表_20220803.xlsx
+++ b/project-related/shoppingBG/Anne_Shopping資料表_20220803.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\anne\project-related\shoppingBG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48D9247-4474-4E9C-AB91-47A277940897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C68B8B1-3075-42A9-A346-96F2BCEF37BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="2340" windowWidth="21600" windowHeight="11505" xr2:uid="{8BC137F4-B0DF-43A4-B783-498922E47A72}"/>
+    <workbookView xWindow="4665" yWindow="1770" windowWidth="21600" windowHeight="11505" xr2:uid="{8BC137F4-B0DF-43A4-B783-498922E47A72}"/>
   </bookViews>
   <sheets>
     <sheet name="操作紀錄(要思考)" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="132">
   <si>
     <t>KEY</t>
   </si>
@@ -655,6 +655,14 @@
   </si>
   <si>
     <t>新增: 1 刪除:2 修改:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_userId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>人員id</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1233,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E7E4CD-CDFD-40E8-835B-835DD94A76C7}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1297,41 +1305,38 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="23" customFormat="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="23" customFormat="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="21" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>48</v>
@@ -1339,30 +1344,33 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>110</v>
@@ -1370,29 +1378,27 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="8"/>
-      <c r="B10" s="5" t="s">
-        <v>86</v>
+      <c r="B10" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>87</v>
@@ -1401,23 +1407,31 @@
       <c r="E10" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>89</v>
+      <c r="F10" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="8"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
     </row>
@@ -1436,6 +1450,14 @@
       <c r="D14" s="4"/>
       <c r="E14" s="8"/>
       <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/project-related/shoppingBG/Anne_Shopping資料表_20220803.xlsx
+++ b/project-related/shoppingBG/Anne_Shopping資料表_20220803.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\anne\project-related\shoppingBG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C68B8B1-3075-42A9-A346-96F2BCEF37BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924C3D0B-3FAE-464A-AE3F-50BB86088DC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="1770" windowWidth="21600" windowHeight="11505" xr2:uid="{8BC137F4-B0DF-43A4-B783-498922E47A72}"/>
+    <workbookView xWindow="4995" yWindow="1440" windowWidth="21600" windowHeight="11280" xr2:uid="{8BC137F4-B0DF-43A4-B783-498922E47A72}"/>
   </bookViews>
   <sheets>
     <sheet name="操作紀錄(要思考)" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="130">
   <si>
     <t>KEY</t>
   </si>
@@ -495,10 +495,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>f_dataId</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>char(20)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -553,10 +549,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>資料id(ex:產品代號)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>身份職責資料表ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -670,7 +662,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -774,26 +766,6 @@
       <family val="1"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -855,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,14 +866,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1241,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E7E4CD-CDFD-40E8-835B-835DD94A76C7}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1258,14 +1222,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="A1" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -1308,7 +1272,7 @@
     <row r="4" spans="1:7">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>50</v>
@@ -1316,27 +1280,30 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="23" customFormat="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="21" t="s">
-        <v>107</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>48</v>
@@ -1344,94 +1311,85 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>128</v>
+        <v>96</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5" t="s">
-        <v>92</v>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
-        <v>80</v>
+      <c r="B10" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>88</v>
+        <v>112</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="8"/>
-      <c r="B11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="8"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
     </row>
@@ -1450,14 +1408,6 @@
       <c r="D14" s="4"/>
       <c r="E14" s="8"/>
       <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1488,14 +1438,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="A1" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1573,7 +1523,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>88</v>
@@ -1589,7 +1539,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>89</v>
@@ -1640,14 +1590,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1690,7 +1640,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>43</v>
@@ -1698,7 +1648,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1754,7 +1704,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1781,7 +1731,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>88</v>
@@ -1797,7 +1747,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>89</v>
@@ -1856,14 +1806,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="A1" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1914,7 +1864,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1934,7 +1884,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>43</v>
@@ -1942,7 +1892,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1983,7 +1933,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>88</v>
@@ -1999,7 +1949,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>89</v>
@@ -2034,14 +1984,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -2087,12 +2037,12 @@
         <v>82</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2120,7 +2070,7 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2148,7 +2098,7 @@
       <c r="D8" s="18"/>
       <c r="E8" s="16"/>
       <c r="F8" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2273,7 +2223,7 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>88</v>
@@ -2289,7 +2239,7 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>89</v>
@@ -2315,299 +2265,299 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="25"/>
-    <col min="2" max="2" width="19" style="25" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="25" customWidth="1"/>
-    <col min="4" max="5" width="9" style="25" customWidth="1"/>
-    <col min="6" max="6" width="47.375" style="25" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="25"/>
+    <col min="1" max="1" width="9" style="21"/>
+    <col min="2" max="2" width="19" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="21" customWidth="1"/>
+    <col min="4" max="5" width="9" style="21" customWidth="1"/>
+    <col min="6" max="6" width="47.375" style="21" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="29" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="30"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="29" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="30"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="29" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="30"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="29" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="25" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="30"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="29" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="30"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="29" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="31"/>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="33" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="30"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="29" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="25" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="30"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="30">
+      <c r="D13" s="30"/>
+      <c r="E13" s="26">
         <v>0</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="30"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="30">
+      <c r="D14" s="30"/>
+      <c r="E14" s="26">
         <v>1</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="31"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27">
         <v>0</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="31"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="33" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="31"/>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="29" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="31"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="29"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="31"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="29"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="31"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="29"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="31"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="29"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2638,14 +2588,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -2710,7 +2660,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2724,7 +2674,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2738,7 +2688,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2751,7 +2701,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>88</v>
@@ -2767,7 +2717,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>89</v>
@@ -2842,14 +2792,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -2906,7 +2856,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>76</v>
@@ -2914,13 +2864,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>76</v>
@@ -2928,14 +2878,14 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="24"/>
+        <v>121</v>
+      </c>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>76</v>
@@ -2943,7 +2893,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2957,7 +2907,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2977,7 +2927,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>24</v>
@@ -2985,7 +2935,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2998,7 +2948,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>88</v>
@@ -3014,7 +2964,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>89</v>

--- a/project-related/shoppingBG/Anne_Shopping資料表_20220803.xlsx
+++ b/project-related/shoppingBG/Anne_Shopping資料表_20220803.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\anne\project-related\shoppingBG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924C3D0B-3FAE-464A-AE3F-50BB86088DC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F95F1BE-F862-4187-8DD5-56732A9CAAD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="1440" windowWidth="21600" windowHeight="11280" xr2:uid="{8BC137F4-B0DF-43A4-B783-498922E47A72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{8BC137F4-B0DF-43A4-B783-498922E47A72}"/>
   </bookViews>
   <sheets>
     <sheet name="操作紀錄(要思考)" sheetId="12" r:id="rId1"/>
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E7E4CD-CDFD-40E8-835B-835DD94A76C7}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1575,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD16C602-C7B0-4862-BFB5-88B8417A073F}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1792,7 +1792,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1970,7 +1970,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2260,7 +2260,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
